--- a/docs/四川用例.xlsx
+++ b/docs/四川用例.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="238">
   <si>
     <t>test_id</t>
   </si>
@@ -418,6 +418,15 @@
 }</t>
   </si>
   <si>
+    <t>test_delete_data</t>
+  </si>
+  <si>
+    <t>999 删除导入数据</t>
+  </si>
+  <si>
+    <t>01 删除在职 离职数据</t>
+  </si>
+  <si>
     <t>test_Default_condition_query_01</t>
   </si>
   <si>
@@ -768,9 +777,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -794,23 +803,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,9 +833,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -838,7 +847,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,42 +900,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -908,16 +925,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -932,13 +948,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -965,55 +974,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,72 +998,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1109,7 +1010,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,13 +1112,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,13 +1130,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,21 +1165,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1198,17 +1192,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1226,8 +1209,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1251,6 +1236,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1261,148 +1270,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1791,12 +1800,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2813,6 +2822,38 @@
       </c>
       <c r="J32" s="4" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2889,19 +2930,19 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
@@ -2921,19 +2962,19 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -2953,19 +2994,19 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
@@ -2985,19 +3026,19 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
@@ -3017,19 +3058,19 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>15</v>
@@ -3049,19 +3090,19 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
@@ -3081,19 +3122,19 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
@@ -3113,19 +3154,19 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
@@ -3145,19 +3186,19 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>15</v>
@@ -3177,19 +3218,19 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
@@ -3209,19 +3250,19 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>15</v>
@@ -3241,19 +3282,19 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
@@ -3273,19 +3314,19 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>15</v>
@@ -3305,19 +3346,19 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>15</v>
@@ -3337,19 +3378,19 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
@@ -3369,19 +3410,19 @@
     </row>
     <row r="17" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
@@ -3401,19 +3442,19 @@
     </row>
     <row r="18" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>15</v>
@@ -3433,19 +3474,19 @@
     </row>
     <row r="19" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>15</v>
@@ -3465,19 +3506,19 @@
     </row>
     <row r="20" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>15</v>
@@ -3497,19 +3538,19 @@
     </row>
     <row r="21" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>15</v>
@@ -3529,19 +3570,19 @@
     </row>
     <row r="22" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>15</v>
@@ -3561,19 +3602,19 @@
     </row>
     <row r="23" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A23" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>15</v>
@@ -3593,19 +3634,19 @@
     </row>
     <row r="24" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>15</v>
@@ -3625,19 +3666,19 @@
     </row>
     <row r="25" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -3657,19 +3698,19 @@
     </row>
     <row r="26" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>15</v>
@@ -3689,19 +3730,19 @@
     </row>
     <row r="27" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>15</v>
@@ -3721,19 +3762,19 @@
     </row>
     <row r="28" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>15</v>
@@ -3753,19 +3794,19 @@
     </row>
     <row r="29" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>15</v>
@@ -3785,19 +3826,19 @@
     </row>
     <row r="30" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>15</v>
@@ -3817,19 +3858,19 @@
     </row>
     <row r="31" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>15</v>
@@ -3849,19 +3890,19 @@
     </row>
     <row r="32" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>15</v>
@@ -3881,19 +3922,19 @@
     </row>
     <row r="33" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A33" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>15</v>
@@ -3913,19 +3954,19 @@
     </row>
     <row r="34" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>15</v>
@@ -3945,19 +3986,19 @@
     </row>
     <row r="35" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
@@ -3977,19 +4018,19 @@
     </row>
     <row r="36" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>15</v>
@@ -4009,19 +4050,19 @@
     </row>
     <row r="37" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>15</v>
@@ -4041,19 +4082,19 @@
     </row>
     <row r="38" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>15</v>
@@ -4073,19 +4114,19 @@
     </row>
     <row r="39" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>15</v>
@@ -4105,19 +4146,19 @@
     </row>
     <row r="40" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>15</v>
@@ -4137,19 +4178,19 @@
     </row>
     <row r="41" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>15</v>
@@ -4169,19 +4210,19 @@
     </row>
     <row r="42" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>15</v>
@@ -4201,19 +4242,19 @@
     </row>
     <row r="43" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>15</v>
@@ -4233,19 +4274,19 @@
     </row>
     <row r="44" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>15</v>

--- a/docs/四川用例.xlsx
+++ b/docs/四川用例.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="248">
   <si>
     <t>test_id</t>
   </si>
@@ -427,6 +427,40 @@
     <t>01 删除在职 离职数据</t>
   </si>
   <si>
+    <t>test_IncumbentManage</t>
+  </si>
+  <si>
+    <t>205 在职人员管理</t>
+  </si>
+  <si>
+    <t>01 在职人员相关操作</t>
+  </si>
+  <si>
+    <t>PracticeCMS/IncumbentManage</t>
+  </si>
+  <si>
+    <t>{
+ "nameORnumber": "431225199212061818\nHO4983324"
+}</t>
+  </si>
+  <si>
+    <t>test_LeaversManage</t>
+  </si>
+  <si>
+    <t>205 离职人员管理</t>
+  </si>
+  <si>
+    <t>01 离职人员相关操作</t>
+  </si>
+  <si>
+    <t>PracticeCMS/LeaversManage</t>
+  </si>
+  <si>
+    <t>{
+ "nameORnumber": "362130197312312425","name":"周玉泉"
+}</t>
+  </si>
+  <si>
     <t>test_Default_condition_query_01</t>
   </si>
   <si>
@@ -777,8 +811,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -803,22 +837,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,7 +875,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,7 +896,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,48 +933,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -917,7 +950,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -933,14 +966,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,7 +1008,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,37 +1056,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,13 +1092,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,13 +1110,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,19 +1128,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,19 +1170,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,43 +1188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,15 +1199,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1188,6 +1213,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,26 +1249,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1237,7 +1260,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1265,153 +1288,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1800,12 +1834,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1814,7 +1848,7 @@
     <col min="2" max="2" width="20.7333333333333" style="2" customWidth="1"/>
     <col min="3" max="3" width="34.85" style="2" customWidth="1"/>
     <col min="4" max="4" width="4.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="63.9666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.175" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="26.3166666666667" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.75" style="2" customWidth="1"/>
@@ -2854,6 +2888,64 @@
       </c>
       <c r="J33" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="34" ht="42.75" spans="1:10">
+      <c r="A34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" ht="42.75" spans="1:10">
+      <c r="A35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2930,19 +3022,19 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
@@ -2962,19 +3054,19 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -2994,19 +3086,19 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
@@ -3026,19 +3118,19 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
@@ -3058,19 +3150,19 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>15</v>
@@ -3090,19 +3182,19 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
@@ -3122,19 +3214,19 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
@@ -3154,19 +3246,19 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
@@ -3186,19 +3278,19 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>15</v>
@@ -3218,19 +3310,19 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
@@ -3250,19 +3342,19 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>15</v>
@@ -3282,19 +3374,19 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
@@ -3314,19 +3406,19 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>15</v>
@@ -3346,19 +3438,19 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>15</v>
@@ -3378,19 +3470,19 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
@@ -3410,19 +3502,19 @@
     </row>
     <row r="17" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
@@ -3442,19 +3534,19 @@
     </row>
     <row r="18" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>15</v>
@@ -3474,19 +3566,19 @@
     </row>
     <row r="19" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>15</v>
@@ -3506,19 +3598,19 @@
     </row>
     <row r="20" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>15</v>
@@ -3538,19 +3630,19 @@
     </row>
     <row r="21" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>15</v>
@@ -3570,19 +3662,19 @@
     </row>
     <row r="22" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>15</v>
@@ -3602,19 +3694,19 @@
     </row>
     <row r="23" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>15</v>
@@ -3634,19 +3726,19 @@
     </row>
     <row r="24" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>15</v>
@@ -3666,19 +3758,19 @@
     </row>
     <row r="25" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -3698,19 +3790,19 @@
     </row>
     <row r="26" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>15</v>
@@ -3730,19 +3822,19 @@
     </row>
     <row r="27" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>15</v>
@@ -3762,19 +3854,19 @@
     </row>
     <row r="28" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>15</v>
@@ -3794,19 +3886,19 @@
     </row>
     <row r="29" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>15</v>
@@ -3826,19 +3918,19 @@
     </row>
     <row r="30" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>15</v>
@@ -3858,19 +3950,19 @@
     </row>
     <row r="31" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>15</v>
@@ -3890,19 +3982,19 @@
     </row>
     <row r="32" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>15</v>
@@ -3922,19 +4014,19 @@
     </row>
     <row r="33" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>15</v>
@@ -3954,19 +4046,19 @@
     </row>
     <row r="34" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>15</v>
@@ -3986,19 +4078,19 @@
     </row>
     <row r="35" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
@@ -4018,19 +4110,19 @@
     </row>
     <row r="36" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>15</v>
@@ -4050,19 +4142,19 @@
     </row>
     <row r="37" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>15</v>
@@ -4082,19 +4174,19 @@
     </row>
     <row r="38" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>15</v>
@@ -4114,19 +4206,19 @@
     </row>
     <row r="39" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>15</v>
@@ -4146,19 +4238,19 @@
     </row>
     <row r="40" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>15</v>
@@ -4178,19 +4270,19 @@
     </row>
     <row r="41" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>15</v>
@@ -4210,19 +4302,19 @@
     </row>
     <row r="42" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>15</v>
@@ -4242,19 +4334,19 @@
     </row>
     <row r="43" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>15</v>
@@ -4274,19 +4366,19 @@
     </row>
     <row r="44" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>15</v>

--- a/docs/四川用例.xlsx
+++ b/docs/四川用例.xlsx
@@ -837,47 +837,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -896,40 +874,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -949,6 +918,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -957,9 +957,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,13 +982,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1008,7 +1008,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,7 +1032,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,7 +1074,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,49 +1170,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,97 +1182,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,21 +1199,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1232,17 +1217,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1265,17 +1265,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1304,148 +1304,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1837,9 +1837,9 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/docs/四川用例.xlsx
+++ b/docs/四川用例.xlsx
@@ -811,9 +811,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -843,6 +843,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -851,8 +902,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,121 +981,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1008,13 +1008,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,73 +1062,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,19 +1080,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,25 +1104,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,13 +1140,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,7 +1188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,21 +1199,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1256,15 +1241,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1291,6 +1267,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1299,6 +1284,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1307,10 +1307,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1319,133 +1319,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1837,9 +1837,9 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/docs/四川用例.xlsx
+++ b/docs/四川用例.xlsx
@@ -10,12 +10,15 @@
     <sheet name="操作" sheetId="1" r:id="rId1"/>
     <sheet name="默认查询" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">操作!$A$1:$J$35</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="246">
   <si>
     <t>test_id</t>
   </si>
@@ -50,10 +53,10 @@
     <t>test_overview_digital_01</t>
   </si>
   <si>
-    <t>101 首页-数字概览</t>
-  </si>
-  <si>
-    <t>01 总已参训人数/总计划人数、总达标人数/总参训人数 数据核对</t>
+    <t>101 首页</t>
+  </si>
+  <si>
+    <t>01 数字概览-总已参训人数/总计划人数、总达标人数/总参训人数 数据核对</t>
   </si>
   <si>
     <t>高</t>
@@ -80,22 +83,19 @@
     <t>test_standard_direction_01</t>
   </si>
   <si>
-    <t>02 参训/达标走势图;操作</t>
+    <t>02 数字概览-参训/达标走势图;操作</t>
   </si>
   <si>
     <t>test_kinds_standards</t>
   </si>
   <si>
-    <t>03 各类达标情况</t>
+    <t>03 各数字概览-类达标情况</t>
   </si>
   <si>
     <t>test_student_details_01</t>
   </si>
   <si>
-    <t>102 首页-学员详情</t>
-  </si>
-  <si>
-    <t>01 字段查询</t>
+    <t>04 学员详情-字段查询</t>
   </si>
   <si>
     <t>预期结果；列表有数据；查询出来的结果与查询条件一致；</t>
@@ -104,13 +104,13 @@
     <t>test_company_data_01</t>
   </si>
   <si>
-    <t>103 首页-公司数据</t>
+    <t>05 公司数据-字段查询</t>
   </si>
   <si>
     <t>test_tabulate_data_01</t>
   </si>
   <si>
-    <t>104 首页-汇总数据</t>
+    <t>06 汇总数据字段查询</t>
   </si>
   <si>
     <t>test_PlanSubmit_02</t>
@@ -218,10 +218,10 @@
     <t>test_TrainingExam_01</t>
   </si>
   <si>
-    <t>112 培训测评-培训测评</t>
-  </si>
-  <si>
-    <t>01 查询、操作</t>
+    <t>112 培训测评</t>
+  </si>
+  <si>
+    <t>01 培训测评-查询、操作</t>
   </si>
   <si>
     <t>PracticeCMS/TrainingExam</t>
@@ -230,7 +230,10 @@
     <t>test_TrainingExam_02</t>
   </si>
   <si>
-    <t>113 培训测评-培训统计</t>
+    <t>113 培训测评</t>
+  </si>
+  <si>
+    <t>01 培训统计-查询、操作</t>
   </si>
   <si>
     <t>test_account_management_inquire_01</t>
@@ -271,7 +274,7 @@
     <t>test_account_management_delete_01</t>
   </si>
   <si>
-    <t>04 删除新添加账号</t>
+    <t>03 删除新添加账号</t>
   </si>
   <si>
     <t>{
@@ -430,10 +433,7 @@
     <t>test_IncumbentManage</t>
   </si>
   <si>
-    <t>205 在职人员管理</t>
-  </si>
-  <si>
-    <t>01 在职人员相关操作</t>
+    <t>02 在职人员相关操作</t>
   </si>
   <si>
     <t>PracticeCMS/IncumbentManage</t>
@@ -447,10 +447,7 @@
     <t>test_LeaversManage</t>
   </si>
   <si>
-    <t>205 离职人员管理</t>
-  </si>
-  <si>
-    <t>01 离职人员相关操作</t>
+    <t>02 离职人员相关操作</t>
   </si>
   <si>
     <t>PracticeCMS/LeaversManage</t>
@@ -812,8 +809,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -838,9 +835,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -850,19 +848,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -873,22 +862,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,14 +884,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -919,7 +893,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,6 +920,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -950,6 +947,13 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -959,7 +963,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,14 +978,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1008,7 +1005,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,67 +1143,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,31 +1161,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,25 +1173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,37 +1185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,21 +1196,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1234,8 +1216,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1259,6 +1243,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1270,17 +1278,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1304,148 +1301,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1837,9 +1834,9 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1990,10 +1987,10 @@
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -2005,7 +2002,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>17</v>
@@ -2019,13 +2016,13 @@
     </row>
     <row r="6" s="5" customFormat="1" spans="1:10">
       <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
@@ -2051,13 +2048,13 @@
     </row>
     <row r="7" s="5" customFormat="1" spans="1:10">
       <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -2083,51 +2080,51 @@
     </row>
     <row r="8" s="5" customFormat="1" ht="42.75" spans="1:10">
       <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:10">
       <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
@@ -2147,83 +2144,83 @@
     </row>
     <row r="10" s="5" customFormat="1" ht="42.75" spans="1:10">
       <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="42.75" spans="1:10">
       <c r="A11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="1:10">
       <c r="A12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>15</v>
@@ -2243,19 +2240,19 @@
     </row>
     <row r="13" s="5" customFormat="1" spans="1:10">
       <c r="A13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
@@ -2275,19 +2272,19 @@
     </row>
     <row r="14" s="5" customFormat="1" spans="1:10">
       <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>15</v>
@@ -2307,19 +2304,19 @@
     </row>
     <row r="15" s="5" customFormat="1" spans="1:10">
       <c r="A15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>15</v>
@@ -2339,19 +2336,19 @@
     </row>
     <row r="16" s="5" customFormat="1" spans="1:10">
       <c r="A16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
@@ -2371,16 +2368,16 @@
     </row>
     <row r="17" s="5" customFormat="1" spans="1:10">
       <c r="A17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
@@ -2895,60 +2892,63 @@
         <v>123</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="35" ht="42.75" spans="1:10">
       <c r="A35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="F35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>132</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J35">
+    <extLst/>
+  </autoFilter>
   <conditionalFormatting sqref="A24">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
@@ -3022,19 +3022,19 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
@@ -3054,19 +3054,19 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -3086,19 +3086,19 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
@@ -3118,19 +3118,19 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
@@ -3150,19 +3150,19 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>15</v>
@@ -3182,19 +3182,19 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
@@ -3214,19 +3214,19 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
@@ -3246,19 +3246,19 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
@@ -3278,19 +3278,19 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>15</v>
@@ -3310,19 +3310,19 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
@@ -3342,19 +3342,19 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>15</v>
@@ -3374,19 +3374,19 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
@@ -3406,19 +3406,19 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>15</v>
@@ -3438,19 +3438,19 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>15</v>
@@ -3470,19 +3470,19 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A16" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
@@ -3502,19 +3502,19 @@
     </row>
     <row r="17" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
@@ -3534,19 +3534,19 @@
     </row>
     <row r="18" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>15</v>
@@ -3566,19 +3566,19 @@
     </row>
     <row r="19" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>15</v>
@@ -3598,19 +3598,19 @@
     </row>
     <row r="20" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A20" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>15</v>
@@ -3630,19 +3630,19 @@
     </row>
     <row r="21" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>15</v>
@@ -3662,19 +3662,19 @@
     </row>
     <row r="22" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>15</v>
@@ -3694,19 +3694,19 @@
     </row>
     <row r="23" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>15</v>
@@ -3726,19 +3726,19 @@
     </row>
     <row r="24" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A24" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>15</v>
@@ -3758,19 +3758,19 @@
     </row>
     <row r="25" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -3790,19 +3790,19 @@
     </row>
     <row r="26" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A26" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>15</v>
@@ -3822,19 +3822,19 @@
     </row>
     <row r="27" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>15</v>
@@ -3854,19 +3854,19 @@
     </row>
     <row r="28" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A28" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>15</v>
@@ -3886,19 +3886,19 @@
     </row>
     <row r="29" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A29" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>15</v>
@@ -3918,19 +3918,19 @@
     </row>
     <row r="30" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>15</v>
@@ -3950,19 +3950,19 @@
     </row>
     <row r="31" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A31" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>15</v>
@@ -3982,19 +3982,19 @@
     </row>
     <row r="32" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>15</v>
@@ -4014,19 +4014,19 @@
     </row>
     <row r="33" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>15</v>
@@ -4046,19 +4046,19 @@
     </row>
     <row r="34" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>15</v>
@@ -4078,19 +4078,19 @@
     </row>
     <row r="35" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
@@ -4110,19 +4110,19 @@
     </row>
     <row r="36" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A36" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>15</v>
@@ -4142,19 +4142,19 @@
     </row>
     <row r="37" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A37" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>15</v>
@@ -4174,19 +4174,19 @@
     </row>
     <row r="38" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>15</v>
@@ -4206,19 +4206,19 @@
     </row>
     <row r="39" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A39" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>15</v>
@@ -4238,19 +4238,19 @@
     </row>
     <row r="40" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A40" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>15</v>
@@ -4270,19 +4270,19 @@
     </row>
     <row r="41" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A41" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>15</v>
@@ -4302,19 +4302,19 @@
     </row>
     <row r="42" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A42" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>15</v>
@@ -4334,19 +4334,19 @@
     </row>
     <row r="43" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>15</v>
@@ -4366,19 +4366,19 @@
     </row>
     <row r="44" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A44" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>15</v>

--- a/docs/四川用例.xlsx
+++ b/docs/四川用例.xlsx
@@ -11,14 +11,14 @@
     <sheet name="默认查询" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">操作!$A$1:$J$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">操作!$A$1:$J$34</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="263">
   <si>
     <t>test_id</t>
   </si>
@@ -300,19 +300,16 @@
     <t>01 登录失败</t>
   </si>
   <si>
-    <t>test_IncumbentImport_01</t>
-  </si>
-  <si>
-    <t>201 在职人员管理</t>
-  </si>
-  <si>
-    <t>01 导入在职人员信息</t>
-  </si>
-  <si>
-    <t>PracticeCMS/LicenseManage/IncumbentManage/IncumbentImport</t>
-  </si>
-  <si>
-    <t>准备好需要操作的数据</t>
+    <t>test_OD_inquire_01</t>
+  </si>
+  <si>
+    <t>201 个信息查询</t>
+  </si>
+  <si>
+    <t>01 单个查询:在职-身份证</t>
+  </si>
+  <si>
+    <t>PracticeCMS/PersonInfoInquiry</t>
   </si>
   <si>
     <t>{
@@ -322,30 +319,6 @@
 }</t>
   </si>
   <si>
-    <t>test_LeaversImport_01</t>
-  </si>
-  <si>
-    <t>202 离职人员管理</t>
-  </si>
-  <si>
-    <t>01 导入离职人员信息</t>
-  </si>
-  <si>
-    <t>PracticeCMS/LicenseManage/LeaversManage/LeaversImport</t>
-  </si>
-  <si>
-    <t>test_OD_inquire_01</t>
-  </si>
-  <si>
-    <t>203 个信息查询</t>
-  </si>
-  <si>
-    <t>01 单个查询:在职-身份证</t>
-  </si>
-  <si>
-    <t>PracticeCMS/PersonInfoInquiry</t>
-  </si>
-  <si>
     <t>test_OD_inquire_02</t>
   </si>
   <si>
@@ -410,7 +383,7 @@
     <t>test_update_01</t>
   </si>
   <si>
-    <t>204 个人信息修改</t>
+    <t>202 个人信息修改</t>
   </si>
   <si>
     <t>01 修改个人信息</t>
@@ -421,13 +394,19 @@
 }</t>
   </si>
   <si>
-    <t>test_delete_data</t>
-  </si>
-  <si>
-    <t>999 删除导入数据</t>
-  </si>
-  <si>
-    <t>01 删除在职 离职数据</t>
+    <t>test_IncumbentImport_01</t>
+  </si>
+  <si>
+    <t>203 在职人员管理</t>
+  </si>
+  <si>
+    <t>01 导入在职人员信息</t>
+  </si>
+  <si>
+    <t>PracticeCMS/LicenseManage/IncumbentManage/IncumbentImport</t>
+  </si>
+  <si>
+    <t>准备好需要操作的数据</t>
   </si>
   <si>
     <t>test_IncumbentManage</t>
@@ -444,6 +423,18 @@
 }</t>
   </si>
   <si>
+    <t>test_LeaversImport_01</t>
+  </si>
+  <si>
+    <t>204 离职人员管理</t>
+  </si>
+  <si>
+    <t>01 导入离职人员信息</t>
+  </si>
+  <si>
+    <t>PracticeCMS/LicenseManage/LeaversManage/LeaversImport</t>
+  </si>
+  <si>
     <t>test_LeaversManage</t>
   </si>
   <si>
@@ -456,6 +447,66 @@
     <t>{
  "nameORnumber": "362130197312312425","name":"周玉泉"
 }</t>
+  </si>
+  <si>
+    <t>test_EntryPersonInquiry_01</t>
+  </si>
+  <si>
+    <t>205 入职人员查询</t>
+  </si>
+  <si>
+    <t>01 模块相关操作</t>
+  </si>
+  <si>
+    <t>PracticeCMS/EntryPersonInquiry</t>
+  </si>
+  <si>
+    <t>test_OnJobPersonInquiry_01</t>
+  </si>
+  <si>
+    <t>206 在职人员查询</t>
+  </si>
+  <si>
+    <t>PracticeCMS/OnJobPersonInquiry</t>
+  </si>
+  <si>
+    <t>test_ResignPersonInquiry_01</t>
+  </si>
+  <si>
+    <t>207 离职人员查询</t>
+  </si>
+  <si>
+    <t>PracticeCMS/ResignPersonInquiry</t>
+  </si>
+  <si>
+    <t>test_ProfessionRecordSend_01</t>
+  </si>
+  <si>
+    <t>208 执业备案报送</t>
+  </si>
+  <si>
+    <t>01 列表数据</t>
+  </si>
+  <si>
+    <t>PracticeCMS/ProfessionRecordSend</t>
+  </si>
+  <si>
+    <t>test_ProfessionRecordStatistics_01</t>
+  </si>
+  <si>
+    <t>209 执业备案统计</t>
+  </si>
+  <si>
+    <t>PracticeCMS/ProfessionRecordStatistics</t>
+  </si>
+  <si>
+    <t>test_delete_data</t>
+  </si>
+  <si>
+    <t>999 删除导入数据</t>
+  </si>
+  <si>
+    <t>01 删除在职 离职数据</t>
   </si>
   <si>
     <t>test_Default_condition_query_01</t>
@@ -809,9 +860,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -834,15 +885,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,30 +923,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,33 +938,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -954,6 +990,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -963,7 +1022,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,14 +1030,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1005,7 +1056,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,13 +1218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,157 +1230,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,6 +1247,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1210,17 +1300,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1249,21 +1328,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1275,24 +1339,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1301,46 +1352,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1349,100 +1406,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1831,12 +1882,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="A39 C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2587,231 +2638,231 @@
         <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="4" t="s">
+    </row>
+    <row r="25" ht="71.25" spans="1:10">
+      <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" s="5" customFormat="1" ht="71.25" spans="1:10">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="26" ht="71.25" spans="1:10">
+      <c r="A26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" s="5" customFormat="1" ht="71.25" spans="1:10">
-      <c r="A26" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="27" ht="71.25" spans="1:10">
       <c r="A27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" ht="57" spans="1:10">
+      <c r="A28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="4" t="s">
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" ht="71.25" spans="1:10">
-      <c r="A28" s="2" t="s">
+    <row r="29" ht="42.75" spans="1:10">
+      <c r="A29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="4" t="s">
+      <c r="D29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" ht="71.25" spans="1:10">
-      <c r="A29" s="2" t="s">
+    <row r="30" ht="71.25" spans="1:10">
+      <c r="A30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" ht="57" spans="1:10">
-      <c r="A30" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="31" ht="71.25" spans="1:10">
+      <c r="A31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="31" ht="42.75" spans="1:10">
-      <c r="A31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>17</v>
@@ -2820,24 +2871,24 @@
         <v>18</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" ht="71.25" spans="1:10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" ht="42.75" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>15</v>
@@ -2855,7 +2906,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" ht="71.25" spans="1:10">
       <c r="A33" s="2" t="s">
         <v>120</v>
       </c>
@@ -2869,13 +2920,13 @@
         <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>17</v>
@@ -2883,22 +2934,25 @@
       <c r="I33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>19</v>
+      <c r="J33" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="34" ht="42.75" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>15</v>
@@ -2913,21 +2967,24 @@
         <v>18</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" ht="42.75" spans="1:10">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" ht="71.25" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
@@ -2942,20 +2999,180 @@
         <v>18</v>
       </c>
       <c r="J35" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" ht="71.25" spans="1:10">
+      <c r="A36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" ht="71.25" spans="1:10">
+      <c r="A37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J35">
+  <autoFilter ref="A1:J34">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="A24">
+  <conditionalFormatting sqref="A31">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
+  <conditionalFormatting sqref="A33">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1 A26:A65510">
+  <conditionalFormatting sqref="A1 A24:A30 A34 A38:A65508 A32">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3022,19 +3239,19 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
@@ -3049,24 +3266,24 @@
         <v>18</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -3081,24 +3298,24 @@
         <v>18</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
@@ -3113,24 +3330,24 @@
         <v>18</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
@@ -3145,24 +3362,24 @@
         <v>18</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>15</v>
@@ -3177,24 +3394,24 @@
         <v>18</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
@@ -3209,24 +3426,24 @@
         <v>18</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
@@ -3241,24 +3458,24 @@
         <v>18</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
@@ -3273,24 +3490,24 @@
         <v>18</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>15</v>
@@ -3305,24 +3522,24 @@
         <v>18</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
@@ -3337,24 +3554,24 @@
         <v>18</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>15</v>
@@ -3369,24 +3586,24 @@
         <v>18</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
@@ -3401,24 +3618,24 @@
         <v>18</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>15</v>
@@ -3433,24 +3650,24 @@
         <v>18</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>15</v>
@@ -3465,24 +3682,24 @@
         <v>18</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
@@ -3497,24 +3714,24 @@
         <v>18</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
@@ -3529,24 +3746,24 @@
         <v>18</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>15</v>
@@ -3561,24 +3778,24 @@
         <v>18</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>15</v>
@@ -3593,24 +3810,24 @@
         <v>18</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>15</v>
@@ -3625,24 +3842,24 @@
         <v>18</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>15</v>
@@ -3657,24 +3874,24 @@
         <v>18</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>15</v>
@@ -3689,24 +3906,24 @@
         <v>18</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>15</v>
@@ -3721,24 +3938,24 @@
         <v>18</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>15</v>
@@ -3753,24 +3970,24 @@
         <v>18</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -3785,24 +4002,24 @@
         <v>18</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>15</v>
@@ -3817,24 +4034,24 @@
         <v>18</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>15</v>
@@ -3849,24 +4066,24 @@
         <v>18</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>15</v>
@@ -3881,24 +4098,24 @@
         <v>18</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>15</v>
@@ -3913,24 +4130,24 @@
         <v>18</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>15</v>
@@ -3945,24 +4162,24 @@
         <v>18</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>15</v>
@@ -3977,24 +4194,24 @@
         <v>18</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>15</v>
@@ -4009,24 +4226,24 @@
         <v>18</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>15</v>
@@ -4041,24 +4258,24 @@
         <v>18</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>15</v>
@@ -4073,24 +4290,24 @@
         <v>18</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
@@ -4105,24 +4322,24 @@
         <v>18</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>15</v>
@@ -4137,24 +4354,24 @@
         <v>18</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>15</v>
@@ -4169,24 +4386,24 @@
         <v>18</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>15</v>
@@ -4201,24 +4418,24 @@
         <v>18</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>15</v>
@@ -4233,24 +4450,24 @@
         <v>18</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>15</v>
@@ -4265,24 +4482,24 @@
         <v>18</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>15</v>
@@ -4297,24 +4514,24 @@
         <v>18</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>15</v>
@@ -4329,24 +4546,24 @@
         <v>18</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>15</v>
@@ -4361,24 +4578,24 @@
         <v>18</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>15</v>
@@ -4393,7 +4610,7 @@
         <v>18</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/docs/四川用例.xlsx
+++ b/docs/四川用例.xlsx
@@ -11,14 +11,14 @@
     <sheet name="默认查询" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">操作!$A$1:$J$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">操作!$A$1:$J$40</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="266">
   <si>
     <t>test_id</t>
   </si>
@@ -485,16 +485,25 @@
     <t>208 执业备案报送</t>
   </si>
   <si>
+    <t>01 省公司报送</t>
+  </si>
+  <si>
+    <t>PracticeCMS/ProfessionRecordSend</t>
+  </si>
+  <si>
+    <t>test_ProfessionRecordSend_02</t>
+  </si>
+  <si>
+    <t>02 协会：查看、删除</t>
+  </si>
+  <si>
+    <t>test_ProfessionRecordStatistics_01</t>
+  </si>
+  <si>
+    <t>209 执业备案统计</t>
+  </si>
+  <si>
     <t>01 列表数据</t>
-  </si>
-  <si>
-    <t>PracticeCMS/ProfessionRecordSend</t>
-  </si>
-  <si>
-    <t>test_ProfessionRecordStatistics_01</t>
-  </si>
-  <si>
-    <t>209 执业备案统计</t>
   </si>
   <si>
     <t>PracticeCMS/ProfessionRecordStatistics</t>
@@ -859,10 +868,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -885,19 +894,52 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -917,35 +959,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,15 +973,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -983,14 +1029,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1000,36 +1038,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1056,7 +1065,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,7 +1107,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,55 +1203,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,55 +1215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,13 +1227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,13 +1245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,26 +1259,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1321,6 +1315,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1331,19 +1336,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1352,148 +1361,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1882,12 +1891,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="A39 C51"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3103,16 +3112,16 @@
         <v>142</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="D39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>15</v>
@@ -3130,40 +3139,72 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="2" t="s">
+    <row r="40" spans="1:10">
+      <c r="A40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="2" t="s">
+      <c r="F40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J74" s="2" t="s">
+      <c r="F75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" s="2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J34">
+  <autoFilter ref="A1:J40">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A31">
@@ -3172,7 +3213,7 @@
   <conditionalFormatting sqref="A33">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1 A24:A30 A34 A38:A65508 A32">
+  <conditionalFormatting sqref="A1 A24:A30 A34 A38:A65509 A32">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3239,19 +3280,19 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
@@ -3271,19 +3312,19 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -3303,19 +3344,19 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
@@ -3335,19 +3376,19 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
@@ -3367,19 +3408,19 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>15</v>
@@ -3399,19 +3440,19 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
@@ -3431,19 +3472,19 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
@@ -3463,19 +3504,19 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
@@ -3495,19 +3536,19 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>15</v>
@@ -3527,19 +3568,19 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
@@ -3559,19 +3600,19 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A12" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>15</v>
@@ -3591,19 +3632,19 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
@@ -3623,19 +3664,19 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>15</v>
@@ -3655,19 +3696,19 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>15</v>
@@ -3687,19 +3728,19 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
@@ -3719,19 +3760,19 @@
     </row>
     <row r="17" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
@@ -3751,19 +3792,19 @@
     </row>
     <row r="18" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>15</v>
@@ -3783,19 +3824,19 @@
     </row>
     <row r="19" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>15</v>
@@ -3815,19 +3856,19 @@
     </row>
     <row r="20" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>15</v>
@@ -3847,19 +3888,19 @@
     </row>
     <row r="21" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>15</v>
@@ -3879,19 +3920,19 @@
     </row>
     <row r="22" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>15</v>
@@ -3911,19 +3952,19 @@
     </row>
     <row r="23" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A23" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>15</v>
@@ -3943,19 +3984,19 @@
     </row>
     <row r="24" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>15</v>
@@ -3975,19 +4016,19 @@
     </row>
     <row r="25" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -4007,19 +4048,19 @@
     </row>
     <row r="26" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>15</v>
@@ -4039,19 +4080,19 @@
     </row>
     <row r="27" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>15</v>
@@ -4071,19 +4112,19 @@
     </row>
     <row r="28" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>15</v>
@@ -4103,19 +4144,19 @@
     </row>
     <row r="29" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>15</v>
@@ -4135,19 +4176,19 @@
     </row>
     <row r="30" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>15</v>
@@ -4167,19 +4208,19 @@
     </row>
     <row r="31" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>15</v>
@@ -4199,19 +4240,19 @@
     </row>
     <row r="32" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>15</v>
@@ -4231,19 +4272,19 @@
     </row>
     <row r="33" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A33" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>15</v>
@@ -4263,19 +4304,19 @@
     </row>
     <row r="34" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>15</v>
@@ -4295,19 +4336,19 @@
     </row>
     <row r="35" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
@@ -4327,19 +4368,19 @@
     </row>
     <row r="36" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>15</v>
@@ -4359,19 +4400,19 @@
     </row>
     <row r="37" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>15</v>
@@ -4391,19 +4432,19 @@
     </row>
     <row r="38" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>15</v>
@@ -4423,19 +4464,19 @@
     </row>
     <row r="39" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>15</v>
@@ -4455,19 +4496,19 @@
     </row>
     <row r="40" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>15</v>
@@ -4487,19 +4528,19 @@
     </row>
     <row r="41" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>15</v>
@@ -4519,19 +4560,19 @@
     </row>
     <row r="42" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>15</v>
@@ -4551,19 +4592,19 @@
     </row>
     <row r="43" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>15</v>
@@ -4583,19 +4624,19 @@
     </row>
     <row r="44" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>15</v>

--- a/docs/四川用例.xlsx
+++ b/docs/四川用例.xlsx
@@ -869,9 +869,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -894,6 +894,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -901,9 +909,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -915,8 +930,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,8 +983,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -945,100 +1038,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1065,7 +1065,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,13 +1137,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,25 +1155,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,103 +1179,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,7 +1203,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,9 +1261,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1298,50 +1324,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1356,153 +1338,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1894,9 +1894,9 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/docs/四川用例.xlsx
+++ b/docs/四川用例.xlsx
@@ -11,14 +11,14 @@
     <sheet name="默认查询" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">操作!$A$1:$J$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">操作!$A$1:$J$41</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="274">
   <si>
     <t>test_id</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>PracticeCMS/CreditInquire</t>
+  </si>
+  <si>
+    <t>test_OD_inquire</t>
   </si>
   <si>
     <t>test_CreditInquire_01</t>
@@ -312,6 +315,12 @@
     <t>PracticeCMS/PersonInfoInquiry</t>
   </si>
   <si>
+    <t>查询有对应数据</t>
+  </si>
+  <si>
+    <t>列表渲染一条或多条数据</t>
+  </si>
+  <si>
     <t>{
  "name": "邓辉",
 "type": "身份证",
@@ -358,10 +367,29 @@
 }</t>
   </si>
   <si>
+    <t>test_OD_inquire_05</t>
+  </si>
+  <si>
+    <t>05 查询条件无数据</t>
+  </si>
+  <si>
+    <t>查询无对应数据</t>
+  </si>
+  <si>
+    <t>弹出提示：查询条件无对应数据</t>
+  </si>
+  <si>
+    <t>{
+ "name": "错误数据",
+"type": "身份证",
+"number": "431226199505270652"
+}</t>
+  </si>
+  <si>
     <t>test_Batch_query_Reset_01</t>
   </si>
   <si>
-    <t>05 批量查询:所有类型数据</t>
+    <t>06 批量查询:所有类型数据</t>
   </si>
   <si>
     <t>{
@@ -372,7 +400,7 @@
     <t>test_import_query_02</t>
   </si>
   <si>
-    <t>06 导入查询</t>
+    <t>07 导入查询</t>
   </si>
   <si>
     <t>{
@@ -869,11 +897,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,12 +922,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="11.3"/>
+      <color rgb="FF008080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -910,7 +942,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -924,14 +977,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -939,7 +1010,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -953,8 +1024,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -968,75 +1071,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1065,25 +1099,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,7 +1111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,91 +1129,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,7 +1147,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,13 +1255,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,7 +1273,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,22 +1293,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1294,6 +1323,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1309,17 +1347,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1342,15 +1385,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1361,49 +1395,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1412,101 +1443,104 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1530,6 +1564,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1891,12 +1928,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2326,16 +2363,16 @@
       <c r="I13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>19</v>
+      <c r="J13" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>54</v>
@@ -2344,7 +2381,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>15</v>
@@ -2364,19 +2401,19 @@
     </row>
     <row r="15" s="5" customFormat="1" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>15</v>
@@ -2396,19 +2433,19 @@
     </row>
     <row r="16" s="5" customFormat="1" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
@@ -2428,16 +2465,16 @@
     </row>
     <row r="17" s="5" customFormat="1" spans="1:10">
       <c r="A17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
@@ -2457,19 +2494,19 @@
     </row>
     <row r="18" s="5" customFormat="1" ht="85.5" spans="1:10">
       <c r="A18" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>15</v>
@@ -2484,24 +2521,24 @@
         <v>18</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="1" ht="99.75" spans="1:10">
       <c r="A19" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>15</v>
@@ -2516,24 +2553,24 @@
         <v>18</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" ht="57" spans="1:10">
       <c r="A20" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>15</v>
@@ -2548,24 +2585,24 @@
         <v>18</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" ht="99.75" spans="1:10">
       <c r="A21" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>15</v>
@@ -2580,25 +2617,25 @@
         <v>18</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1" ht="99.75" spans="1:10">
       <c r="A22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>15</v>
       </c>
@@ -2612,7 +2649,7 @@
         <v>18</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="1" ht="54" customHeight="1" spans="1:10">
@@ -2625,29 +2662,29 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" s="5" customFormat="1" ht="71.25" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>17</v>
@@ -2656,31 +2693,31 @@
         <v>18</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" ht="71.25" spans="1:10">
       <c r="A25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H25" s="2" t="s">
         <v>17</v>
       </c>
@@ -2688,30 +2725,30 @@
         <v>18</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" ht="71.25" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>17</v>
@@ -2720,30 +2757,30 @@
         <v>18</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" ht="71.25" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>17</v>
@@ -2752,30 +2789,30 @@
         <v>18</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" ht="57" spans="1:10">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" ht="71.25" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>17</v>
@@ -2784,24 +2821,24 @@
         <v>18</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" ht="42.75" spans="1:10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" ht="57" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>15</v>
@@ -2816,24 +2853,24 @@
         <v>18</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" ht="71.25" spans="1:10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" ht="42.75" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>15</v>
@@ -2848,30 +2885,30 @@
         <v>18</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" ht="71.25" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>17</v>
@@ -2880,30 +2917,30 @@
         <v>18</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" ht="42.75" spans="1:10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" ht="71.25" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>17</v>
@@ -2912,63 +2949,63 @@
         <v>18</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" ht="71.25" spans="1:10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" ht="42.75" spans="1:10">
       <c r="A33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" ht="71.25" spans="1:10">
+      <c r="A34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" ht="42.75" spans="1:10">
-      <c r="A34" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H34" s="2" t="s">
         <v>17</v>
       </c>
@@ -2976,24 +3013,24 @@
         <v>18</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" ht="71.25" spans="1:10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" ht="42.75" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
@@ -3008,24 +3045,24 @@
         <v>18</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" ht="71.25" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>15</v>
@@ -3040,24 +3077,24 @@
         <v>18</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" ht="71.25" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>15</v>
@@ -3072,24 +3109,24 @@
         <v>18</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" ht="71.25" spans="1:10">
       <c r="A38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="D38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>15</v>
@@ -3103,25 +3140,25 @@
       <c r="I38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>19</v>
+      <c r="J38" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>15</v>
@@ -3141,19 +3178,19 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>15</v>
@@ -3171,50 +3208,85 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J75" s="2" t="s">
+    <row r="41" spans="1:10">
+      <c r="A41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J40">
+  <autoFilter ref="A1:J41">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="A31">
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1 A24:A30 A34 A38:A65509 A32">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  <conditionalFormatting sqref="A1 A24:A27 A29:A31 A33 A39:A65510 A35">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3280,19 +3352,19 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
@@ -3307,24 +3379,24 @@
         <v>18</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -3339,24 +3411,24 @@
         <v>18</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
@@ -3371,24 +3443,24 @@
         <v>18</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
@@ -3403,24 +3475,24 @@
         <v>18</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>15</v>
@@ -3435,24 +3507,24 @@
         <v>18</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
@@ -3467,24 +3539,24 @@
         <v>18</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
@@ -3499,24 +3571,24 @@
         <v>18</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
@@ -3531,24 +3603,24 @@
         <v>18</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>15</v>
@@ -3563,24 +3635,24 @@
         <v>18</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
@@ -3595,24 +3667,24 @@
         <v>18</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>15</v>
@@ -3627,24 +3699,24 @@
         <v>18</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
@@ -3659,24 +3731,24 @@
         <v>18</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>15</v>
@@ -3691,24 +3763,24 @@
         <v>18</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>15</v>
@@ -3723,24 +3795,24 @@
         <v>18</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
@@ -3755,24 +3827,24 @@
         <v>18</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
@@ -3787,24 +3859,24 @@
         <v>18</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>15</v>
@@ -3819,24 +3891,24 @@
         <v>18</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>15</v>
@@ -3851,24 +3923,24 @@
         <v>18</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>15</v>
@@ -3883,24 +3955,24 @@
         <v>18</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>15</v>
@@ -3915,24 +3987,24 @@
         <v>18</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>15</v>
@@ -3947,24 +4019,24 @@
         <v>18</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>15</v>
@@ -3979,24 +4051,24 @@
         <v>18</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>15</v>
@@ -4011,24 +4083,24 @@
         <v>18</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -4043,24 +4115,24 @@
         <v>18</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>15</v>
@@ -4075,24 +4147,24 @@
         <v>18</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>15</v>
@@ -4107,24 +4179,24 @@
         <v>18</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>15</v>
@@ -4139,24 +4211,24 @@
         <v>18</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>15</v>
@@ -4171,24 +4243,24 @@
         <v>18</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>15</v>
@@ -4203,24 +4275,24 @@
         <v>18</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>15</v>
@@ -4235,24 +4307,24 @@
         <v>18</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>15</v>
@@ -4267,24 +4339,24 @@
         <v>18</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>15</v>
@@ -4299,24 +4371,24 @@
         <v>18</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>15</v>
@@ -4331,25 +4403,25 @@
         <v>18</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
@@ -4363,24 +4435,24 @@
         <v>18</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>15</v>
@@ -4395,24 +4467,24 @@
         <v>18</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>15</v>
@@ -4427,24 +4499,24 @@
         <v>18</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>15</v>
@@ -4459,24 +4531,24 @@
         <v>18</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>15</v>
@@ -4491,24 +4563,24 @@
         <v>18</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>15</v>
@@ -4523,24 +4595,24 @@
         <v>18</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>15</v>
@@ -4555,24 +4627,24 @@
         <v>18</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>15</v>
@@ -4587,24 +4659,24 @@
         <v>18</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>15</v>
@@ -4619,24 +4691,24 @@
         <v>18</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>15</v>
@@ -4651,7 +4723,7 @@
         <v>18</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/docs/四川用例.xlsx
+++ b/docs/四川用例.xlsx
@@ -389,7 +389,7 @@
     <t>test_Batch_query_Reset_01</t>
   </si>
   <si>
-    <t>06 批量查询:所有类型数据</t>
+    <t>06 入职前批量查询</t>
   </si>
   <si>
     <t>{
@@ -896,9 +896,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -928,10 +928,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -942,14 +957,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,9 +987,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -977,17 +1017,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1003,61 +1050,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1066,6 +1059,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1099,7 +1099,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,13 +1153,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,37 +1189,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,25 +1249,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,79 +1279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,6 +1294,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1304,6 +1330,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1327,42 +1362,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1395,148 +1395,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1933,7 +1933,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/docs/四川用例.xlsx
+++ b/docs/四川用例.xlsx
@@ -11,14 +11,14 @@
     <sheet name="默认查询" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">操作!$A$1:$J$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">操作!$A$1:$J$43</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="279">
   <si>
     <t>test_id</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>PracticeCMS/CreditInquire</t>
-  </si>
-  <si>
-    <t>test_OD_inquire</t>
   </si>
   <si>
     <t>test_CreditInquire_01</t>
@@ -480,7 +477,7 @@
     <t>test_EntryPersonInquiry_01</t>
   </si>
   <si>
-    <t>205 入职人员查询</t>
+    <t>205 执业证导入追踪</t>
   </si>
   <si>
     <t>01 模块相关操作</t>
@@ -489,10 +486,28 @@
     <t>PracticeCMS/EntryPersonInquiry</t>
   </si>
   <si>
+    <t>test_LicenseImportTrack_01</t>
+  </si>
+  <si>
+    <t>206 执业证导入追踪</t>
+  </si>
+  <si>
+    <t>01 导入数据统计</t>
+  </si>
+  <si>
+    <t>PracticeCMS/LicenseImportTrack</t>
+  </si>
+  <si>
+    <t>test_LicenseImportTrack_02</t>
+  </si>
+  <si>
+    <t>02 执业证导入追踪</t>
+  </si>
+  <si>
     <t>test_OnJobPersonInquiry_01</t>
   </si>
   <si>
-    <t>206 在职人员查询</t>
+    <t>208 在职人员查询</t>
   </si>
   <si>
     <t>PracticeCMS/OnJobPersonInquiry</t>
@@ -501,7 +516,7 @@
     <t>test_ResignPersonInquiry_01</t>
   </si>
   <si>
-    <t>207 离职人员查询</t>
+    <t>209 离职人员查询</t>
   </si>
   <si>
     <t>PracticeCMS/ResignPersonInquiry</t>
@@ -510,7 +525,7 @@
     <t>test_ProfessionRecordSend_01</t>
   </si>
   <si>
-    <t>208 执业备案报送</t>
+    <t>210 执业备案报送</t>
   </si>
   <si>
     <t>01 省公司报送</t>
@@ -528,7 +543,7 @@
     <t>test_ProfessionRecordStatistics_01</t>
   </si>
   <si>
-    <t>209 执业备案统计</t>
+    <t>211 执业备案统计</t>
   </si>
   <si>
     <t>01 列表数据</t>
@@ -901,7 +916,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -919,12 +934,6 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11.3"/>
-      <color rgb="FF008080"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1395,152 +1404,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1564,9 +1573,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1928,12 +1934,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2363,16 +2369,16 @@
       <c r="I13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>56</v>
+      <c r="J13" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" spans="1:10">
       <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>54</v>
@@ -2381,7 +2387,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>15</v>
@@ -2401,19 +2407,19 @@
     </row>
     <row r="15" s="5" customFormat="1" spans="1:10">
       <c r="A15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>15</v>
@@ -2433,19 +2439,19 @@
     </row>
     <row r="16" s="5" customFormat="1" spans="1:10">
       <c r="A16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
@@ -2465,16 +2471,16 @@
     </row>
     <row r="17" s="5" customFormat="1" spans="1:10">
       <c r="A17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
@@ -2494,116 +2500,116 @@
     </row>
     <row r="18" s="5" customFormat="1" ht="85.5" spans="1:10">
       <c r="A18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="1" ht="99.75" spans="1:10">
       <c r="A19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" ht="57" spans="1:10">
       <c r="A20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" ht="99.75" spans="1:10">
       <c r="A21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>15</v>
       </c>
@@ -2617,24 +2623,24 @@
         <v>18</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1" ht="99.75" spans="1:10">
       <c r="A22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>15</v>
@@ -2649,7 +2655,7 @@
         <v>18</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="1" ht="54" customHeight="1" spans="1:10">
@@ -2662,286 +2668,286 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="9"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" s="5" customFormat="1" ht="71.25" spans="1:10">
       <c r="A24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="25" ht="71.25" spans="1:10">
       <c r="A25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="26" ht="71.25" spans="1:10">
       <c r="A26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="27" ht="71.25" spans="1:10">
       <c r="A27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="28" ht="71.25" spans="1:10">
       <c r="A28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="29" ht="57" spans="1:10">
       <c r="A29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="30" ht="42.75" spans="1:10">
       <c r="A30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="31" ht="71.25" spans="1:10">
       <c r="A31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="32" ht="71.25" spans="1:10">
       <c r="A32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="H32" s="2" t="s">
         <v>17</v>
       </c>
@@ -2949,62 +2955,62 @@
         <v>18</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" ht="42.75" spans="1:10">
       <c r="A33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="34" ht="71.25" spans="1:10">
       <c r="A34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>17</v>
@@ -3013,82 +3019,82 @@
         <v>18</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" ht="42.75" spans="1:10">
       <c r="A35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="36" ht="71.25" spans="1:10">
       <c r="A36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" ht="71.25" spans="1:10">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>13</v>
@@ -3108,90 +3114,90 @@
       <c r="I37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" ht="71.25" spans="1:10">
+      <c r="J37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="D38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" ht="71.25" spans="1:10">
+      <c r="A39" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="F39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" ht="71.25" spans="1:10">
+      <c r="A40" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>15</v>
       </c>
@@ -3204,25 +3210,25 @@
       <c r="I40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>19</v>
+      <c r="J40" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>15</v>
@@ -3240,40 +3246,104 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="2" t="s">
+    <row r="42" spans="1:10">
+      <c r="A42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J76" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J41">
+  <autoFilter ref="A1:J43">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A28">
@@ -3285,7 +3355,7 @@
   <conditionalFormatting sqref="A34">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1 A24:A27 A29:A31 A33 A39:A65510 A35">
+  <conditionalFormatting sqref="A1 A24:A27 A29:A31 A33 A35 A41:A65512">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3352,19 +3422,19 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
@@ -3379,24 +3449,24 @@
         <v>18</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -3411,24 +3481,24 @@
         <v>18</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
@@ -3443,24 +3513,24 @@
         <v>18</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
@@ -3475,24 +3545,24 @@
         <v>18</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>15</v>
@@ -3507,24 +3577,24 @@
         <v>18</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
@@ -3539,24 +3609,24 @@
         <v>18</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
@@ -3571,24 +3641,24 @@
         <v>18</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
@@ -3603,24 +3673,24 @@
         <v>18</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>15</v>
@@ -3635,24 +3705,24 @@
         <v>18</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
@@ -3667,24 +3737,24 @@
         <v>18</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>15</v>
@@ -3699,25 +3769,25 @@
         <v>18</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
@@ -3731,24 +3801,24 @@
         <v>18</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>15</v>
@@ -3763,24 +3833,24 @@
         <v>18</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>15</v>
@@ -3795,24 +3865,24 @@
         <v>18</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
@@ -3827,24 +3897,24 @@
         <v>18</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
@@ -3859,24 +3929,24 @@
         <v>18</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>15</v>
@@ -3891,24 +3961,24 @@
         <v>18</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>15</v>
@@ -3923,24 +3993,24 @@
         <v>18</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>15</v>
@@ -3955,24 +4025,24 @@
         <v>18</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>15</v>
@@ -3987,24 +4057,24 @@
         <v>18</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>15</v>
@@ -4019,24 +4089,24 @@
         <v>18</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>15</v>
@@ -4051,24 +4121,24 @@
         <v>18</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>15</v>
@@ -4083,24 +4153,24 @@
         <v>18</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -4115,24 +4185,24 @@
         <v>18</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>15</v>
@@ -4147,24 +4217,24 @@
         <v>18</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>15</v>
@@ -4179,24 +4249,24 @@
         <v>18</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>15</v>
@@ -4211,24 +4281,24 @@
         <v>18</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>15</v>
@@ -4243,24 +4313,24 @@
         <v>18</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>15</v>
@@ -4275,24 +4345,24 @@
         <v>18</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>15</v>
@@ -4307,24 +4377,24 @@
         <v>18</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>15</v>
@@ -4339,24 +4409,24 @@
         <v>18</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>15</v>
@@ -4371,25 +4441,25 @@
         <v>18</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A34" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>15</v>
       </c>
@@ -4403,24 +4473,24 @@
         <v>18</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
@@ -4435,24 +4505,24 @@
         <v>18</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>15</v>
@@ -4467,24 +4537,24 @@
         <v>18</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>15</v>
@@ -4499,24 +4569,24 @@
         <v>18</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>15</v>
@@ -4531,24 +4601,24 @@
         <v>18</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>15</v>
@@ -4563,24 +4633,24 @@
         <v>18</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>15</v>
@@ -4595,24 +4665,24 @@
         <v>18</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>15</v>
@@ -4627,24 +4697,24 @@
         <v>18</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>15</v>
@@ -4659,24 +4729,24 @@
         <v>18</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>15</v>
@@ -4691,24 +4761,24 @@
         <v>18</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" ht="42.75" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>15</v>
@@ -4723,7 +4793,7 @@
         <v>18</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/docs/四川用例.xlsx
+++ b/docs/四川用例.xlsx
@@ -149,7 +149,7 @@
   </si>
   <si>
     <t>{
- "add_name": "测试数据1"
+ "add_name": "测试数据20138"
 }</t>
   </si>
   <si>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>{
- "delete_name": "测试数据1"
+ "delete_name": "测试数据20138"
 }</t>
   </si>
   <si>
@@ -1937,9 +1937,9 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/docs/四川用例.xlsx
+++ b/docs/四川用例.xlsx
@@ -159,7 +159,7 @@
     <t>109 培训档案管理</t>
   </si>
   <si>
-    <t>01 查询数据并删除测试数据</t>
+    <t>01 协会审核通过</t>
   </si>
   <si>
     <t>PracticeCMS/TrainingFileManage</t>
@@ -911,9 +911,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -937,9 +937,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -952,29 +1002,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -988,22 +1031,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1012,22 +1041,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,7 +1064,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1058,28 +1080,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1108,7 +1108,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,7 +1156,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,19 +1210,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,61 +1246,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,67 +1264,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,27 +1302,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1343,11 +1335,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1369,23 +1367,25 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1394,8 +1394,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1404,148 +1404,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1939,7 +1939,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/docs/四川用例.xlsx
+++ b/docs/四川用例.xlsx
@@ -107,27 +107,27 @@
     <t>05 公司数据-字段查询</t>
   </si>
   <si>
-    <t>test_tabulate_data_01</t>
-  </si>
-  <si>
-    <t>06 汇总数据字段查询</t>
-  </si>
-  <si>
-    <t>test_PlanSubmit_02</t>
-  </si>
-  <si>
-    <t>105 培训计划报送</t>
-  </si>
-  <si>
-    <t>01 省协会：退回</t>
-  </si>
-  <si>
-    <t>PracticeCMS/PlanSubmit</t>
-  </si>
-  <si>
     <t>{
 "company": "民生人寿保险股份有限公司四川分公司"
 }</t>
+  </si>
+  <si>
+    <t>test_tabulate_data_01</t>
+  </si>
+  <si>
+    <t>06 汇总数据字段查询</t>
+  </si>
+  <si>
+    <t>test_PlanSubmit_02</t>
+  </si>
+  <si>
+    <t>105 培训计划报送</t>
+  </si>
+  <si>
+    <t>01 省协会：退回</t>
+  </si>
+  <si>
+    <t>PracticeCMS/PlanSubmit</t>
   </si>
   <si>
     <t>test_PlanSubmit_01</t>
@@ -937,52 +937,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,8 +954,37 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1009,7 +995,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1039,9 +1025,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1064,14 +1049,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1081,7 +1058,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,7 +1108,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,7 +1138,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,25 +1228,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,19 +1246,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,97 +1270,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,6 +1286,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1299,24 +1299,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1335,17 +1317,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1376,6 +1361,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1391,11 +1385,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1404,148 +1404,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1937,9 +1937,9 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:J16"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2117,7 +2117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" spans="1:10">
+    <row r="6" s="5" customFormat="1" ht="42.75" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -2146,18 +2146,18 @@
         <v>18</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -2183,19 +2183,19 @@
     </row>
     <row r="8" s="5" customFormat="1" ht="42.75" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
@@ -2210,7 +2210,7 @@
         <v>18</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:10">
@@ -2218,7 +2218,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>37</v>
@@ -2227,7 +2227,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>

--- a/docs/四川用例.xlsx
+++ b/docs/四川用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="操作" sheetId="1" r:id="rId1"/>
@@ -911,9 +911,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -937,23 +937,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -968,34 +953,42 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,13 +1018,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1040,9 +1026,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1058,14 +1043,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,7 +1074,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,7 +1108,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,37 +1174,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,13 +1192,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,49 +1222,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,13 +1246,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,37 +1270,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,20 +1317,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1352,10 +1349,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1364,8 +1368,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1385,17 +1389,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1404,148 +1404,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1936,10 +1936,10 @@
   <sheetPr/>
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3369,7 +3369,7 @@
   <sheetPr/>
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/docs/四川用例.xlsx
+++ b/docs/四川用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="操作" sheetId="1" r:id="rId1"/>
@@ -912,9 +912,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -938,6 +938,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -951,21 +994,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -986,19 +1017,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1010,26 +1033,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1043,45 +1081,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,7 +1108,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,7 +1210,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,145 +1258,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,7 +1282,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,6 +1317,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1332,17 +1358,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1365,15 +1385,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1388,164 +1399,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1936,10 +1936,10 @@
   <sheetPr/>
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3369,8 +3369,8 @@
   <sheetPr/>
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
